--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1929713.473498039</v>
+        <v>-1931663.699326599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15817944.0804746</v>
+        <v>15817944.08047461</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>379.7172263310407</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.6505117829663</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.706926911161502</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.1463349087506</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>39.21900617289345</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>240.4679964563004</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>175.7757902790019</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>50.06729527459954</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>155.4526127311941</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13811946581988</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>279.2429650745944</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>58.94036353859023</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>89.30725745073111</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>155.4064613638405</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>141.9118581262121</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>175.7950143622311</v>
       </c>
     </row>
     <row r="17">
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>50.82980405225764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>20.26317694825408</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>135.9421075406295</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.739520513242</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>184.1468362434387</v>
       </c>
       <c r="V25" t="n">
-        <v>248.6275829019198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789589</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287489</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.549686895097</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.549686895097</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D2" t="n">
-        <v>823.2839882883468</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E2" t="n">
-        <v>437.4957356901025</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.149526959219</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>444.1427873289085</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>404.5276295785111</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>2059.43997018698</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.387644276009</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.387644276009</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.387644276009</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.618989005894</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>491.0296857481896</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>491.0296857481896</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1142.020036873616</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1142.020036873616</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="V13" t="n">
-        <v>887.3355486677287</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="W13" t="n">
-        <v>597.9183786307682</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="X13" t="n">
-        <v>597.9183786307682</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
         <v>1198.760773441947</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>764.9211061669174</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C19" t="n">
-        <v>595.9849232390105</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D19" t="n">
-        <v>445.8682838266748</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>1478.448415054615</v>
       </c>
       <c r="X19" t="n">
-        <v>985.7136853104475</v>
+        <v>1250.458864156598</v>
       </c>
       <c r="Y19" t="n">
-        <v>764.9211061669174</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>812.5733666950175</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1388.068270039477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1388.068270039477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1388.068270039477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.38378183359</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>843.9666117966292</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>615.9770608986119</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8632439327646</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1312.9093652615</v>
       </c>
       <c r="V25" t="n">
-        <v>734.8632439327646</v>
+        <v>1058.224877055613</v>
       </c>
       <c r="W25" t="n">
-        <v>734.8632439327646</v>
+        <v>768.8077070186521</v>
       </c>
       <c r="X25" t="n">
-        <v>734.8632439327646</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.8632439327646</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514086</v>
@@ -6476,10 +6476,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6710,16 +6710,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,25 +6856,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6947,16 +6947,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504517</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7546,19 +7546,19 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,7 +7582,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>127.6461250100661</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.15881941067073</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>74.10147238067786</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22747,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.13553933322707</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229327</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633815</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.14109969454873</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>144.3254942723652</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>42.7896389898637</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>95.60415859431154</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>266.2598213883369</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>12.67336547758291</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>88.18128947036126</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.0905161551387</v>
       </c>
       <c r="V25" t="n">
-        <v>3.510060421908207</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262556</v>
+        <v>58099.54682262557</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>58654.35896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58654.35896065628</v>
+      </c>
+      <c r="G2" t="n">
+        <v>58654.35896065631</v>
+      </c>
+      <c r="H2" t="n">
         <v>58654.3589606563</v>
       </c>
-      <c r="F2" t="n">
-        <v>58654.3589606563</v>
-      </c>
-      <c r="G2" t="n">
-        <v>58654.3589606563</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58654.35896065626</v>
-      </c>
       <c r="I2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.35896065627</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982127</v>
@@ -26341,10 +26341,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982127</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.0369722519</v>
+        <v>139160.036972252</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,28 +26427,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26457,7 +26457,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753887.4474275804</v>
+        <v>-754003.4002914868</v>
       </c>
       <c r="C6" t="n">
         <v>-186913.8131101126</v>
@@ -26528,28 +26528,28 @@
         <v>-186913.8131101126</v>
       </c>
       <c r="E6" t="n">
-        <v>-580667.6110518271</v>
+        <v>-580765.0701777991</v>
       </c>
       <c r="F6" t="n">
-        <v>-55507.57457493107</v>
+        <v>-55605.03370090323</v>
       </c>
       <c r="G6" t="n">
-        <v>-55507.57457493104</v>
+        <v>-55605.03370090319</v>
       </c>
       <c r="H6" t="n">
-        <v>-55507.57457493108</v>
+        <v>-55605.03370090323</v>
       </c>
       <c r="I6" t="n">
-        <v>-55507.57457493102</v>
+        <v>-55605.03370090324</v>
       </c>
       <c r="J6" t="n">
-        <v>-311659.0992047008</v>
+        <v>-311659.0992047007</v>
       </c>
       <c r="K6" t="n">
-        <v>-80730.36790839535</v>
+        <v>-80730.36790839532</v>
       </c>
       <c r="L6" t="n">
-        <v>-80730.36790839532</v>
+        <v>-80730.36790839533</v>
       </c>
       <c r="M6" t="n">
         <v>-215531.3831422325</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,34 +26744,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>177.1226951276115</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.59045693444671</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>143.7141211117697</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>212.9186371509346</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>10.75617105198893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>193.9553103994672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.36666737196963</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>69.58249272689014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>172.3102008918379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>69.99800364281862</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>153.2051754114287</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>136.402397938306</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28257,10 +28257,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.101937224077502e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080788</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,7 +36680,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
